--- a/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_02_beg.xlsx
+++ b/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_02_beg.xlsx
@@ -928,7 +928,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Muelsyse"]And that reason, I'm guessing, is the “Diαbolic Crisis,” right?
+    <t xml:space="preserve">[name="Muelsyse"]And that reason, I'm guessing, is the 'Diαbolic Crisis,' right?
 </t>
   </si>
   <si>
@@ -1096,7 +1096,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="메이어"]하지 물론. 혼자 일하다 보니까, 요릴 못하면 굶어 죽을 수도 있겠다 싶더라고.
+    <t xml:space="preserve">[name="메이어"]알지 물론. 혼자 일하다 보니까, 요릴 못하면 굶어 죽을 수도 있겠다 싶더라고.
 </t>
   </si>
   <si>
@@ -1184,7 +1184,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="뮤엘시스"]근데 당신이 아까 말한 바대로라면, 당신의 조력자는 카프카 씨 한 사람뿐인 거잖아.
+    <t xml:space="preserve">[name="뮤엘시스"]근데 당신이 아까 말한 바로는, 당신의 조력자는 카프카 씨 한 사람뿐인 거잖아.
 </t>
   </si>
   <si>
